--- a/Test cases Documentation and Issue report document.xlsx
+++ b/Test cases Documentation and Issue report document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive - Institut Teknologi Sepuluh Nopember\Dokumen\Cypresswork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A3C1D-47E6-48E0-B36F-C989F7076DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD24B66B-D185-4834-9281-6C356F45B4E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3E737833-9F9D-4B6C-A863-7926156BE5F6}"/>
   </bookViews>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
     <t>Scenario Type</t>
-  </si>
-  <si>
-    <t>Test Scenarios</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -211,9 +208,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t>TestCase Passed</t>
   </si>
   <si>
     <t>Medium</t>
@@ -237,6 +231,19 @@
 Framework: Cypress ver.6.8.0
 windows 10 ver.19402
 </t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Check Respon on calculate
+button</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
   </si>
 </sst>
 </file>
@@ -359,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -397,6 +404,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E0754A-833C-494C-9920-04CD84223627}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,23 +736,23 @@
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
     <col min="11" max="11" width="33.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,363 +760,368 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="126.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
         <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="126.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>120</v>
       </c>
       <c r="G3" s="3">
         <v>120</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="3">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="K8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="10">
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="3"/>
+      <c r="L11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
